--- a/Reports/FridayReport 13-08-2021.xlsx
+++ b/Reports/FridayReport 13-08-2021.xlsx
@@ -45,42 +45,42 @@
     <t>ANGGERIK</t>
   </si>
   <si>
+    <t>BAHASA TAMIL</t>
+  </si>
+  <si>
     <t>BAHASA INGGERIS</t>
   </si>
   <si>
+    <t>BAHASA MELAYU 1</t>
+  </si>
+  <si>
+    <t>BAHASA CINA</t>
+  </si>
+  <si>
+    <t>PENDIDIKAN JASMANI &amp; KESIHATAN</t>
+  </si>
+  <si>
     <t>AMALAN BAHASA MELAYU</t>
   </si>
   <si>
-    <t>BAHASA TAMIL</t>
-  </si>
-  <si>
-    <t>BAHASA CINA</t>
-  </si>
-  <si>
-    <t>BAHASA MELAYU 1</t>
-  </si>
-  <si>
-    <t>PENDIDIKAN JASMANI &amp; KESIHATAN</t>
+    <t>82.14 %</t>
   </si>
   <si>
     <t>78.57 %</t>
   </si>
   <si>
+    <t>100.0 %</t>
+  </si>
+  <si>
+    <t>32.14 %</t>
+  </si>
+  <si>
+    <t>60.71 %</t>
+  </si>
+  <si>
     <t>103.57 %</t>
   </si>
   <si>
-    <t>82.14 %</t>
-  </si>
-  <si>
-    <t>32.14 %</t>
-  </si>
-  <si>
-    <t>100.0 %</t>
-  </si>
-  <si>
-    <t>60.71 %</t>
-  </si>
-  <si>
     <t>TINGKATAN 1</t>
   </si>
   <si>
@@ -141,27 +141,27 @@
     <t>KENANGA</t>
   </si>
   <si>
+    <t>MATEMATIK</t>
+  </si>
+  <si>
+    <t>GEOGRAFI</t>
+  </si>
+  <si>
+    <t>REKA BENTUK &amp; TEKNOLOGI</t>
+  </si>
+  <si>
+    <t>SAINS</t>
+  </si>
+  <si>
     <t>PENDIDIKAN MORAL</t>
   </si>
   <si>
-    <t>GEOGRAFI</t>
+    <t>BAHASA MELAYU</t>
   </si>
   <si>
     <t>SEJARAH</t>
   </si>
   <si>
-    <t>REKA BENTUK &amp; TEKNOLOGI</t>
-  </si>
-  <si>
-    <t>BAHASA MELAYU</t>
-  </si>
-  <si>
-    <t>MATEMATIK</t>
-  </si>
-  <si>
-    <t>SAINS</t>
-  </si>
-  <si>
     <t>PENDIDIKAN SENI VISUAL</t>
   </si>
   <si>
@@ -171,210 +171,210 @@
     <t>76.32 %</t>
   </si>
   <si>
+    <t>47.37 %</t>
+  </si>
+  <si>
+    <t>52.63 %</t>
+  </si>
+  <si>
+    <t>57.89 %</t>
+  </si>
+  <si>
+    <t>28.95 %</t>
+  </si>
+  <si>
     <t>55.26 %</t>
   </si>
   <si>
-    <t>52.63 %</t>
-  </si>
-  <si>
     <t>42.11 %</t>
   </si>
   <si>
-    <t>57.89 %</t>
-  </si>
-  <si>
-    <t>47.37 %</t>
-  </si>
-  <si>
-    <t>28.95 %</t>
-  </si>
-  <si>
     <t>31.25 %</t>
   </si>
   <si>
+    <t>25.0 %</t>
+  </si>
+  <si>
+    <t>9.38 %</t>
+  </si>
+  <si>
+    <t>62.5 %</t>
+  </si>
+  <si>
     <t>15.62 %</t>
   </si>
   <si>
-    <t>25.0 %</t>
+    <t>12.5 %</t>
   </si>
   <si>
     <t>34.38 %</t>
   </si>
   <si>
-    <t>62.5 %</t>
-  </si>
-  <si>
-    <t>9.38 %</t>
-  </si>
-  <si>
-    <t>12.5 %</t>
-  </si>
-  <si>
     <t>41.67 %</t>
   </si>
   <si>
+    <t>47.22 %</t>
+  </si>
+  <si>
+    <t>58.33 %</t>
+  </si>
+  <si>
+    <t>16.67 %</t>
+  </si>
+  <si>
     <t>36.11 %</t>
   </si>
   <si>
-    <t>47.22 %</t>
-  </si>
-  <si>
-    <t>58.33 %</t>
-  </si>
-  <si>
     <t>86.11 %</t>
   </si>
   <si>
-    <t>16.67 %</t>
-  </si>
-  <si>
     <t>76.92 %</t>
   </si>
   <si>
+    <t>66.67 %</t>
+  </si>
+  <si>
     <t>84.62 %</t>
   </si>
   <si>
+    <t>71.79 %</t>
+  </si>
+  <si>
+    <t>64.1 %</t>
+  </si>
+  <si>
+    <t>5.13 %</t>
+  </si>
+  <si>
     <t>92.31 %</t>
   </si>
   <si>
-    <t>71.79 %</t>
-  </si>
-  <si>
-    <t>66.67 %</t>
-  </si>
-  <si>
-    <t>64.1 %</t>
-  </si>
-  <si>
-    <t>5.13 %</t>
-  </si>
-  <si>
     <t>79.49 %</t>
   </si>
   <si>
     <t>61.54 %</t>
   </si>
   <si>
+    <t>7.69 %</t>
+  </si>
+  <si>
+    <t>58.97 %</t>
+  </si>
+  <si>
     <t>89.74 %</t>
   </si>
   <si>
-    <t>58.97 %</t>
-  </si>
-  <si>
-    <t>7.69 %</t>
+    <t>82.05 %</t>
+  </si>
+  <si>
+    <t>56.41 %</t>
+  </si>
+  <si>
+    <t>87.18 %</t>
   </si>
   <si>
     <t>184.62 %</t>
   </si>
   <si>
-    <t>87.18 %</t>
-  </si>
-  <si>
-    <t>82.05 %</t>
-  </si>
-  <si>
-    <t>56.41 %</t>
-  </si>
-  <si>
     <t>39.39 %</t>
   </si>
   <si>
     <t>30.3 %</t>
   </si>
   <si>
+    <t>60.61 %</t>
+  </si>
+  <si>
+    <t>63.64 %</t>
+  </si>
+  <si>
     <t>18.18 %</t>
   </si>
   <si>
-    <t>63.64 %</t>
-  </si>
-  <si>
-    <t>60.61 %</t>
-  </si>
-  <si>
     <t>94.74 %</t>
   </si>
   <si>
+    <t>86.84 %</t>
+  </si>
+  <si>
+    <t>84.21 %</t>
+  </si>
+  <si>
+    <t>39.47 %</t>
+  </si>
+  <si>
+    <t>65.79 %</t>
+  </si>
+  <si>
+    <t>2.63 %</t>
+  </si>
+  <si>
     <t>81.58 %</t>
   </si>
   <si>
-    <t>86.84 %</t>
-  </si>
-  <si>
-    <t>84.21 %</t>
-  </si>
-  <si>
     <t>78.95 %</t>
   </si>
   <si>
-    <t>39.47 %</t>
-  </si>
-  <si>
-    <t>65.79 %</t>
-  </si>
-  <si>
-    <t>2.63 %</t>
+    <t>44.44 %</t>
+  </si>
+  <si>
+    <t>94.44 %</t>
   </si>
   <si>
     <t>97.22 %</t>
   </si>
   <si>
-    <t>44.44 %</t>
-  </si>
-  <si>
-    <t>94.44 %</t>
-  </si>
-  <si>
     <t>83.78 %</t>
   </si>
   <si>
+    <t>86.49 %</t>
+  </si>
+  <si>
+    <t>81.08 %</t>
+  </si>
+  <si>
+    <t>40.54 %</t>
+  </si>
+  <si>
+    <t>64.86 %</t>
+  </si>
+  <si>
+    <t>21.62 %</t>
+  </si>
+  <si>
     <t>97.3 %</t>
   </si>
   <si>
-    <t>86.49 %</t>
-  </si>
-  <si>
-    <t>81.08 %</t>
-  </si>
-  <si>
     <t>89.19 %</t>
   </si>
   <si>
-    <t>40.54 %</t>
-  </si>
-  <si>
-    <t>64.86 %</t>
-  </si>
-  <si>
-    <t>21.62 %</t>
-  </si>
-  <si>
     <t>50.0 %</t>
   </si>
   <si>
+    <t>26.32 %</t>
+  </si>
+  <si>
+    <t>5.26 %</t>
+  </si>
+  <si>
     <t>89.47 %</t>
   </si>
   <si>
-    <t>26.32 %</t>
-  </si>
-  <si>
-    <t>5.26 %</t>
+    <t>82.93 %</t>
+  </si>
+  <si>
+    <t>87.8 %</t>
+  </si>
+  <si>
+    <t>92.68 %</t>
   </si>
   <si>
     <t>90.24 %</t>
   </si>
   <si>
-    <t>87.8 %</t>
-  </si>
-  <si>
     <t>200.0 %</t>
   </si>
   <si>
-    <t>82.93 %</t>
-  </si>
-  <si>
-    <t>92.68 %</t>
-  </si>
-  <si>
     <t>TINGKATAN 2</t>
   </si>
   <si>
@@ -402,87 +402,87 @@
     <t>MELATI</t>
   </si>
   <si>
+    <t>33.33 %</t>
+  </si>
+  <si>
+    <t>30.56 %</t>
+  </si>
+  <si>
     <t>19.44 %</t>
   </si>
   <si>
-    <t>30.56 %</t>
-  </si>
-  <si>
-    <t>33.33 %</t>
-  </si>
-  <si>
     <t>65.71 %</t>
   </si>
   <si>
+    <t>68.57 %</t>
+  </si>
+  <si>
+    <t>40.0 %</t>
+  </si>
+  <si>
+    <t>37.14 %</t>
+  </si>
+  <si>
+    <t>51.43 %</t>
+  </si>
+  <si>
+    <t>60.0 %</t>
+  </si>
+  <si>
+    <t>11.43 %</t>
+  </si>
+  <si>
     <t>62.86 %</t>
   </si>
   <si>
-    <t>68.57 %</t>
-  </si>
-  <si>
-    <t>40.0 %</t>
-  </si>
-  <si>
-    <t>60.0 %</t>
-  </si>
-  <si>
-    <t>37.14 %</t>
-  </si>
-  <si>
-    <t>51.43 %</t>
-  </si>
-  <si>
-    <t>11.43 %</t>
+    <t>75.68 %</t>
+  </si>
+  <si>
+    <t>72.97 %</t>
   </si>
   <si>
     <t>70.27 %</t>
   </si>
   <si>
-    <t>75.68 %</t>
-  </si>
-  <si>
-    <t>72.97 %</t>
+    <t>23.08 %</t>
+  </si>
+  <si>
+    <t>74.36 %</t>
   </si>
   <si>
     <t>94.87 %</t>
   </si>
   <si>
-    <t>23.08 %</t>
-  </si>
-  <si>
-    <t>74.36 %</t>
+    <t>52.78 %</t>
   </si>
   <si>
     <t>22.22 %</t>
   </si>
   <si>
-    <t>52.78 %</t>
-  </si>
-  <si>
     <t>13.89 %</t>
   </si>
   <si>
     <t>94.59 %</t>
   </si>
   <si>
+    <t>67.57 %</t>
+  </si>
+  <si>
     <t>78.38 %</t>
   </si>
   <si>
-    <t>67.57 %</t>
+    <t>56.76 %</t>
+  </si>
+  <si>
+    <t>59.46 %</t>
+  </si>
+  <si>
+    <t>13.51 %</t>
   </si>
   <si>
     <t>62.16 %</t>
   </si>
   <si>
-    <t>59.46 %</t>
-  </si>
-  <si>
-    <t>56.76 %</t>
-  </si>
-  <si>
-    <t>13.51 %</t>
-  </si>
-  <si>
     <t>91.89 %</t>
   </si>
   <si>
@@ -492,45 +492,45 @@
     <t>44.74 %</t>
   </si>
   <si>
+    <t>25.71 %</t>
+  </si>
+  <si>
+    <t>88.57 %</t>
+  </si>
+  <si>
+    <t>82.86 %</t>
+  </si>
+  <si>
     <t>97.14 %</t>
   </si>
   <si>
-    <t>88.57 %</t>
+    <t>91.43 %</t>
   </si>
   <si>
     <t>85.71 %</t>
   </si>
   <si>
-    <t>25.71 %</t>
-  </si>
-  <si>
-    <t>91.43 %</t>
-  </si>
-  <si>
-    <t>82.86 %</t>
-  </si>
-  <si>
     <t>51.61 %</t>
   </si>
   <si>
+    <t>35.48 %</t>
+  </si>
+  <si>
+    <t>32.26 %</t>
+  </si>
+  <si>
+    <t>6.45 %</t>
+  </si>
+  <si>
+    <t>25.81 %</t>
+  </si>
+  <si>
+    <t>22.58 %</t>
+  </si>
+  <si>
     <t>45.16 %</t>
   </si>
   <si>
-    <t>35.48 %</t>
-  </si>
-  <si>
-    <t>32.26 %</t>
-  </si>
-  <si>
-    <t>25.81 %</t>
-  </si>
-  <si>
-    <t>6.45 %</t>
-  </si>
-  <si>
-    <t>22.58 %</t>
-  </si>
-  <si>
     <t>48.48 %</t>
   </si>
   <si>
@@ -570,39 +570,39 @@
     <t>15.15 %</t>
   </si>
   <si>
+    <t>36.36 %</t>
+  </si>
+  <si>
+    <t>21.21 %</t>
+  </si>
+  <si>
+    <t>42.42 %</t>
+  </si>
+  <si>
     <t>127.27 %</t>
   </si>
   <si>
-    <t>42.42 %</t>
-  </si>
-  <si>
-    <t>21.21 %</t>
-  </si>
-  <si>
-    <t>36.36 %</t>
-  </si>
-  <si>
     <t>41.94 %</t>
   </si>
   <si>
+    <t>48.39 %</t>
+  </si>
+  <si>
     <t>58.06 %</t>
   </si>
   <si>
     <t>83.87 %</t>
   </si>
   <si>
-    <t>48.39 %</t>
-  </si>
-  <si>
     <t>72.22 %</t>
   </si>
   <si>
+    <t>88.89 %</t>
+  </si>
+  <si>
     <t>83.33 %</t>
   </si>
   <si>
-    <t>88.89 %</t>
-  </si>
-  <si>
     <t>54.29 %</t>
   </si>
   <si>
@@ -612,54 +612,54 @@
     <t>77.14 %</t>
   </si>
   <si>
+    <t>97.5 %</t>
+  </si>
+  <si>
     <t>190.0 %</t>
   </si>
   <si>
-    <t>97.5 %</t>
-  </si>
-  <si>
     <t>92.5 %</t>
   </si>
   <si>
     <t>87.5 %</t>
   </si>
   <si>
+    <t>65.0 %</t>
+  </si>
+  <si>
+    <t>55.0 %</t>
+  </si>
+  <si>
+    <t>52.5 %</t>
+  </si>
+  <si>
     <t>82.5 %</t>
   </si>
   <si>
-    <t>65.0 %</t>
-  </si>
-  <si>
-    <t>52.5 %</t>
-  </si>
-  <si>
-    <t>55.0 %</t>
-  </si>
-  <si>
     <t>77.5 %</t>
   </si>
   <si>
+    <t>90.0 %</t>
+  </si>
+  <si>
     <t>95.0 %</t>
   </si>
   <si>
-    <t>90.0 %</t>
-  </si>
-  <si>
     <t>26.67 %</t>
   </si>
   <si>
+    <t>13.33 %</t>
+  </si>
+  <si>
+    <t>23.33 %</t>
+  </si>
+  <si>
+    <t>20.0 %</t>
+  </si>
+  <si>
     <t>30.0 %</t>
   </si>
   <si>
-    <t>13.33 %</t>
-  </si>
-  <si>
-    <t>20.0 %</t>
-  </si>
-  <si>
-    <t>23.33 %</t>
-  </si>
-  <si>
     <t>42.86 %</t>
   </si>
   <si>
@@ -699,33 +699,33 @@
     <t>PENDIDIKAN JASMANI DAN KESIHATAN</t>
   </si>
   <si>
+    <t>MATEMATIK TAMBAHAN</t>
+  </si>
+  <si>
     <t>EKONOMI</t>
   </si>
   <si>
-    <t>MATEMATIK TAMBAHAN</t>
-  </si>
-  <si>
     <t>PERNIAGAAN</t>
   </si>
   <si>
+    <t>KIMIA</t>
+  </si>
+  <si>
     <t>FIZIK</t>
   </si>
   <si>
-    <t>KIMIA</t>
-  </si>
-  <si>
     <t>41.46 %</t>
   </si>
   <si>
+    <t>36.59 %</t>
+  </si>
+  <si>
+    <t>46.34 %</t>
+  </si>
+  <si>
     <t>34.15 %</t>
   </si>
   <si>
-    <t>46.34 %</t>
-  </si>
-  <si>
-    <t>36.59 %</t>
-  </si>
-  <si>
     <t>8.57 %</t>
   </si>
   <si>
@@ -735,85 +735,88 @@
     <t>70.59 %</t>
   </si>
   <si>
+    <t>91.18 %</t>
+  </si>
+  <si>
+    <t>88.24 %</t>
+  </si>
+  <si>
     <t>97.06 %</t>
   </si>
   <si>
     <t>79.41 %</t>
   </si>
   <si>
-    <t>91.18 %</t>
-  </si>
-  <si>
-    <t>88.24 %</t>
+    <t>19.51 %</t>
   </si>
   <si>
     <t>68.29 %</t>
   </si>
   <si>
+    <t>26.83 %</t>
+  </si>
+  <si>
     <t>204.88 %</t>
   </si>
   <si>
     <t>65.85 %</t>
   </si>
   <si>
-    <t>19.51 %</t>
-  </si>
-  <si>
-    <t>26.83 %</t>
-  </si>
-  <si>
     <t>17.39 %</t>
   </si>
   <si>
+    <t>8.7 %</t>
+  </si>
+  <si>
+    <t>43.48 %</t>
+  </si>
+  <si>
     <t>21.74 %</t>
   </si>
   <si>
-    <t>8.7 %</t>
-  </si>
-  <si>
-    <t>43.48 %</t>
+    <t>14.81 %</t>
   </si>
   <si>
     <t>92.59 %</t>
   </si>
   <si>
-    <t>14.81 %</t>
+    <t>51.85 %</t>
   </si>
   <si>
     <t>162.96 %</t>
   </si>
   <si>
-    <t>51.85 %</t>
-  </si>
-  <si>
     <t>13.79 %</t>
   </si>
   <si>
     <t>58.62 %</t>
   </si>
   <si>
+    <t>14.63 %</t>
+  </si>
+  <si>
+    <t>29.27 %</t>
+  </si>
+  <si>
+    <t>43.9 %</t>
+  </si>
+  <si>
     <t>60.98 %</t>
   </si>
   <si>
-    <t>43.9 %</t>
-  </si>
-  <si>
-    <t>14.63 %</t>
-  </si>
-  <si>
-    <t>29.27 %</t>
-  </si>
-  <si>
     <t>36.84 %</t>
   </si>
   <si>
+    <t>34.21 %</t>
+  </si>
+  <si>
     <t>71.05 %</t>
   </si>
   <si>
     <t>68.42 %</t>
   </si>
   <si>
-    <t>34.21 %</t>
+    <t>0.0 %</t>
   </si>
   <si>
     <t>158.33 %</t>
@@ -822,9 +825,6 @@
     <t>138.89 %</t>
   </si>
   <si>
-    <t>0.0 %</t>
-  </si>
-  <si>
     <t>91.67 %</t>
   </si>
   <si>
@@ -870,12 +870,12 @@
     <t>24.0 %</t>
   </si>
   <si>
+    <t>12.0 %</t>
+  </si>
+  <si>
     <t>16.0 %</t>
   </si>
   <si>
-    <t>12.0 %</t>
-  </si>
-  <si>
     <t>97.44 %</t>
   </si>
   <si>
@@ -885,27 +885,27 @@
     <t>2.56 %</t>
   </si>
   <si>
+    <t>56.67 %</t>
+  </si>
+  <si>
+    <t>53.33 %</t>
+  </si>
+  <si>
+    <t>173.33 %</t>
+  </si>
+  <si>
+    <t>156.67 %</t>
+  </si>
+  <si>
+    <t>63.33 %</t>
+  </si>
+  <si>
     <t>73.33 %</t>
   </si>
   <si>
     <t>70.0 %</t>
   </si>
   <si>
-    <t>63.33 %</t>
-  </si>
-  <si>
-    <t>173.33 %</t>
-  </si>
-  <si>
-    <t>56.67 %</t>
-  </si>
-  <si>
-    <t>156.67 %</t>
-  </si>
-  <si>
-    <t>53.33 %</t>
-  </si>
-  <si>
     <t>20.83 %</t>
   </si>
   <si>
@@ -915,67 +915,67 @@
     <t>95.83 %</t>
   </si>
   <si>
+    <t>136.36 %</t>
+  </si>
+  <si>
+    <t>40.91 %</t>
+  </si>
+  <si>
+    <t>68.18 %</t>
+  </si>
+  <si>
+    <t>88.64 %</t>
+  </si>
+  <si>
+    <t>54.55 %</t>
+  </si>
+  <si>
     <t>59.09 %</t>
   </si>
   <si>
-    <t>136.36 %</t>
-  </si>
-  <si>
     <t>61.36 %</t>
   </si>
   <si>
     <t>65.91 %</t>
   </si>
   <si>
-    <t>68.18 %</t>
-  </si>
-  <si>
-    <t>54.55 %</t>
-  </si>
-  <si>
-    <t>40.91 %</t>
-  </si>
-  <si>
-    <t>88.64 %</t>
+    <t>62.22 %</t>
   </si>
   <si>
     <t>82.22 %</t>
   </si>
   <si>
+    <t>8.89 %</t>
+  </si>
+  <si>
     <t>57.78 %</t>
   </si>
   <si>
     <t>71.11 %</t>
   </si>
   <si>
-    <t>62.22 %</t>
-  </si>
-  <si>
-    <t>8.89 %</t>
-  </si>
-  <si>
     <t>28.89 %</t>
   </si>
   <si>
     <t>24.44 %</t>
   </si>
   <si>
+    <t>47.06 %</t>
+  </si>
+  <si>
+    <t>29.41 %</t>
+  </si>
+  <si>
+    <t>41.18 %</t>
+  </si>
+  <si>
+    <t>8.82 %</t>
+  </si>
+  <si>
     <t>64.71 %</t>
   </si>
   <si>
     <t>55.88 %</t>
-  </si>
-  <si>
-    <t>41.18 %</t>
-  </si>
-  <si>
-    <t>29.41 %</t>
-  </si>
-  <si>
-    <t>47.06 %</t>
-  </si>
-  <si>
-    <t>8.82 %</t>
   </si>
 </sst>
 </file>
@@ -1499,7 +1499,7 @@
         <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
         <v>49</v>
@@ -1587,7 +1587,7 @@
         <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1635,7 +1635,7 @@
         <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
         <v>56</v>
@@ -1652,7 +1652,7 @@
         <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
         <v>57</v>
@@ -1669,7 +1669,7 @@
         <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
         <v>58</v>
@@ -1686,7 +1686,7 @@
         <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
         <v>59</v>
@@ -1706,7 +1706,7 @@
         <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1723,7 +1723,7 @@
         <v>47</v>
       </c>
       <c r="E15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1737,7 +1737,7 @@
         <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E16" t="s">
         <v>61</v>
@@ -1754,7 +1754,7 @@
         <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E17" t="s">
         <v>60</v>
@@ -1771,7 +1771,7 @@
         <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E18" t="s">
         <v>62</v>
@@ -1788,7 +1788,7 @@
         <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E19" t="s">
         <v>63</v>
@@ -1825,7 +1825,7 @@
         <v>41</v>
       </c>
       <c r="E21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1842,7 +1842,7 @@
         <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1859,7 +1859,7 @@
         <v>43</v>
       </c>
       <c r="E23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1873,10 +1873,10 @@
         <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1890,10 +1890,10 @@
         <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E25" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1907,10 +1907,10 @@
         <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E26" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1924,10 +1924,10 @@
         <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E27" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1941,7 +1941,7 @@
         <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E28" t="s">
         <v>69</v>
@@ -1961,7 +1961,7 @@
         <v>40</v>
       </c>
       <c r="E29" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1978,7 +1978,7 @@
         <v>41</v>
       </c>
       <c r="E30" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1995,7 +1995,7 @@
         <v>42</v>
       </c>
       <c r="E31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2012,7 +2012,7 @@
         <v>43</v>
       </c>
       <c r="E32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2026,10 +2026,10 @@
         <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E33" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2043,10 +2043,10 @@
         <v>32</v>
       </c>
       <c r="D34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E34" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2060,10 +2060,10 @@
         <v>32</v>
       </c>
       <c r="D35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2077,7 +2077,7 @@
         <v>32</v>
       </c>
       <c r="D36" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E36" t="s">
         <v>75</v>
@@ -2094,7 +2094,7 @@
         <v>33</v>
       </c>
       <c r="D37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E37" t="s">
         <v>76</v>
@@ -2111,10 +2111,10 @@
         <v>33</v>
       </c>
       <c r="D38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E38" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2128,10 +2128,10 @@
         <v>33</v>
       </c>
       <c r="D39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2145,10 +2145,10 @@
         <v>33</v>
       </c>
       <c r="D40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E40" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2165,7 +2165,7 @@
         <v>44</v>
       </c>
       <c r="E41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2179,10 +2179,10 @@
         <v>33</v>
       </c>
       <c r="D42" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E42" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2196,10 +2196,10 @@
         <v>33</v>
       </c>
       <c r="D43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E43" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2213,7 +2213,7 @@
         <v>33</v>
       </c>
       <c r="D44" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E44" t="s">
         <v>80</v>
@@ -2233,7 +2233,7 @@
         <v>40</v>
       </c>
       <c r="E45" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2267,7 +2267,7 @@
         <v>42</v>
       </c>
       <c r="E47" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2284,7 +2284,7 @@
         <v>43</v>
       </c>
       <c r="E48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2298,7 +2298,7 @@
         <v>34</v>
       </c>
       <c r="D49" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="E49" t="s">
         <v>82</v>
@@ -2315,10 +2315,10 @@
         <v>34</v>
       </c>
       <c r="D50" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E50" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2332,10 +2332,10 @@
         <v>34</v>
       </c>
       <c r="D51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E51" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2349,10 +2349,10 @@
         <v>34</v>
       </c>
       <c r="D52" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="E52" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2366,10 +2366,10 @@
         <v>34</v>
       </c>
       <c r="D53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E53" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2383,10 +2383,10 @@
         <v>34</v>
       </c>
       <c r="D54" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E54" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2400,7 +2400,7 @@
         <v>35</v>
       </c>
       <c r="D55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E55" t="s">
         <v>85</v>
@@ -2434,10 +2434,10 @@
         <v>35</v>
       </c>
       <c r="D57" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E57" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2451,7 +2451,7 @@
         <v>35</v>
       </c>
       <c r="D58" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="E58" t="s">
         <v>87</v>
@@ -2485,10 +2485,10 @@
         <v>35</v>
       </c>
       <c r="D60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E60" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2502,10 +2502,10 @@
         <v>35</v>
       </c>
       <c r="D61" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="E61" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2522,7 +2522,7 @@
         <v>8</v>
       </c>
       <c r="E62" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2536,10 +2536,10 @@
         <v>36</v>
       </c>
       <c r="D63" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="E63" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2556,7 +2556,7 @@
         <v>41</v>
       </c>
       <c r="E64" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2573,7 +2573,7 @@
         <v>42</v>
       </c>
       <c r="E65" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2587,7 +2587,7 @@
         <v>36</v>
       </c>
       <c r="D66" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
         <v>93</v>
@@ -2604,7 +2604,7 @@
         <v>36</v>
       </c>
       <c r="D67" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="E67" t="s">
         <v>94</v>
@@ -2621,10 +2621,10 @@
         <v>36</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E68" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2638,10 +2638,10 @@
         <v>36</v>
       </c>
       <c r="D69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E69" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2655,10 +2655,10 @@
         <v>36</v>
       </c>
       <c r="D70" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="E70" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2672,10 +2672,10 @@
         <v>36</v>
       </c>
       <c r="D71" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E71" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2689,10 +2689,10 @@
         <v>36</v>
       </c>
       <c r="D72" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E72" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2709,7 +2709,7 @@
         <v>8</v>
       </c>
       <c r="E73" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2723,10 +2723,10 @@
         <v>7</v>
       </c>
       <c r="D74" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="E74" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2743,7 +2743,7 @@
         <v>41</v>
       </c>
       <c r="E75" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2760,7 +2760,7 @@
         <v>42</v>
       </c>
       <c r="E76" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2774,10 +2774,10 @@
         <v>7</v>
       </c>
       <c r="D77" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2791,10 +2791,10 @@
         <v>7</v>
       </c>
       <c r="D78" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="E78" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2808,10 +2808,10 @@
         <v>7</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E79" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2825,10 +2825,10 @@
         <v>7</v>
       </c>
       <c r="D80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E80" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2842,10 +2842,10 @@
         <v>7</v>
       </c>
       <c r="D81" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="E81" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2859,10 +2859,10 @@
         <v>7</v>
       </c>
       <c r="D82" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E82" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2876,10 +2876,10 @@
         <v>7</v>
       </c>
       <c r="D83" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E83" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2896,7 +2896,7 @@
         <v>8</v>
       </c>
       <c r="E84" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2910,10 +2910,10 @@
         <v>37</v>
       </c>
       <c r="D85" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="E85" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2930,7 +2930,7 @@
         <v>41</v>
       </c>
       <c r="E86" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2947,7 +2947,7 @@
         <v>42</v>
       </c>
       <c r="E87" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2961,7 +2961,7 @@
         <v>37</v>
       </c>
       <c r="D88" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
         <v>104</v>
@@ -2978,7 +2978,7 @@
         <v>37</v>
       </c>
       <c r="D89" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="E89" t="s">
         <v>105</v>
@@ -2995,10 +2995,10 @@
         <v>37</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E90" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3012,10 +3012,10 @@
         <v>37</v>
       </c>
       <c r="D91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E91" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3029,10 +3029,10 @@
         <v>37</v>
       </c>
       <c r="D92" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="E92" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3046,10 +3046,10 @@
         <v>37</v>
       </c>
       <c r="D93" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E93" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3063,10 +3063,10 @@
         <v>37</v>
       </c>
       <c r="D94" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E94" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3080,10 +3080,10 @@
         <v>38</v>
       </c>
       <c r="D95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E95" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3100,7 +3100,7 @@
         <v>40</v>
       </c>
       <c r="E96" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3134,7 +3134,7 @@
         <v>42</v>
       </c>
       <c r="E98" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3151,7 +3151,7 @@
         <v>43</v>
       </c>
       <c r="E99" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3165,10 +3165,10 @@
         <v>38</v>
       </c>
       <c r="D100" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E100" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3182,10 +3182,10 @@
         <v>38</v>
       </c>
       <c r="D101" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E101" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3199,10 +3199,10 @@
         <v>38</v>
       </c>
       <c r="D102" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E102" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3216,10 +3216,10 @@
         <v>38</v>
       </c>
       <c r="D103" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E103" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3267,10 +3267,10 @@
         <v>39</v>
       </c>
       <c r="D106" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E106" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3284,7 +3284,7 @@
         <v>39</v>
       </c>
       <c r="D107" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="E107" t="s">
         <v>113</v>
@@ -3301,10 +3301,10 @@
         <v>39</v>
       </c>
       <c r="D108" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E108" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3318,10 +3318,10 @@
         <v>39</v>
       </c>
       <c r="D109" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3335,7 +3335,7 @@
         <v>39</v>
       </c>
       <c r="D110" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E110" t="s">
         <v>116</v>
@@ -3355,7 +3355,7 @@
         <v>46</v>
       </c>
       <c r="E111" t="s">
-        <v>18</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -3399,10 +3399,10 @@
         <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>127</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3416,10 +3416,10 @@
         <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3433,10 +3433,10 @@
         <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3450,10 +3450,10 @@
         <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3467,10 +3467,10 @@
         <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3484,10 +3484,10 @@
         <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3501,10 +3501,10 @@
         <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3518,10 +3518,10 @@
         <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3535,7 +3535,7 @@
         <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
         <v>129</v>
@@ -3552,10 +3552,10 @@
         <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3569,7 +3569,7 @@
         <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s">
         <v>130</v>
@@ -3586,7 +3586,7 @@
         <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
         <v>131</v>
@@ -3603,7 +3603,7 @@
         <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E14" t="s">
         <v>132</v>
@@ -3620,7 +3620,7 @@
         <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
         <v>133</v>
@@ -3637,7 +3637,7 @@
         <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
         <v>134</v>
@@ -3657,7 +3657,7 @@
         <v>47</v>
       </c>
       <c r="E17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3671,10 +3671,10 @@
         <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3688,10 +3688,10 @@
         <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3705,7 +3705,7 @@
         <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E20" t="s">
         <v>137</v>
@@ -3722,10 +3722,10 @@
         <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3742,7 +3742,7 @@
         <v>41</v>
       </c>
       <c r="E22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3756,10 +3756,10 @@
         <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E23" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3773,7 +3773,7 @@
         <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E24" t="s">
         <v>101</v>
@@ -3790,10 +3790,10 @@
         <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3807,10 +3807,10 @@
         <v>36</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3824,10 +3824,10 @@
         <v>36</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E27" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3841,10 +3841,10 @@
         <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="E28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3861,7 +3861,7 @@
         <v>46</v>
       </c>
       <c r="E29" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3878,7 +3878,7 @@
         <v>8</v>
       </c>
       <c r="E30" t="s">
-        <v>76</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3892,10 +3892,10 @@
         <v>35</v>
       </c>
       <c r="D31" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>141</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3909,10 +3909,10 @@
         <v>35</v>
       </c>
       <c r="D32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E32" t="s">
-        <v>70</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3926,10 +3926,10 @@
         <v>35</v>
       </c>
       <c r="D33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E33" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3943,7 +3943,7 @@
         <v>35</v>
       </c>
       <c r="D34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E34" t="s">
         <v>76</v>
@@ -3960,10 +3960,10 @@
         <v>35</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E35" t="s">
-        <v>142</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3977,10 +3977,10 @@
         <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3994,10 +3994,10 @@
         <v>35</v>
       </c>
       <c r="D37" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>143</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -4011,10 +4011,10 @@
         <v>35</v>
       </c>
       <c r="D38" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="E38" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -4028,10 +4028,10 @@
         <v>35</v>
       </c>
       <c r="D39" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E39" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -4048,7 +4048,7 @@
         <v>8</v>
       </c>
       <c r="E40" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -4062,10 +4062,10 @@
         <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="E41" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -4079,10 +4079,10 @@
         <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E42" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -4096,10 +4096,10 @@
         <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -4113,10 +4113,10 @@
         <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -4130,10 +4130,10 @@
         <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -4147,10 +4147,10 @@
         <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="E46" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -4164,10 +4164,10 @@
         <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="E47" t="s">
-        <v>144</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -4181,10 +4181,10 @@
         <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="E48" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -4198,10 +4198,10 @@
         <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E49" t="s">
-        <v>145</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -4215,10 +4215,10 @@
         <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E50" t="s">
-        <v>146</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -4235,7 +4235,7 @@
         <v>8</v>
       </c>
       <c r="E51" t="s">
-        <v>147</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -4249,10 +4249,10 @@
         <v>34</v>
       </c>
       <c r="D52" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="E52" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -4266,10 +4266,10 @@
         <v>34</v>
       </c>
       <c r="D53" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E53" t="s">
-        <v>103</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -4283,10 +4283,10 @@
         <v>34</v>
       </c>
       <c r="D54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E54" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -4300,10 +4300,10 @@
         <v>34</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E55" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -4317,10 +4317,10 @@
         <v>34</v>
       </c>
       <c r="D56" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -4334,10 +4334,10 @@
         <v>34</v>
       </c>
       <c r="D57" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="E57" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -4351,10 +4351,10 @@
         <v>34</v>
       </c>
       <c r="D58" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="E58" t="s">
-        <v>149</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -4368,10 +4368,10 @@
         <v>34</v>
       </c>
       <c r="D59" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="E59" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -4388,7 +4388,7 @@
         <v>46</v>
       </c>
       <c r="E60" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -4402,10 +4402,10 @@
         <v>32</v>
       </c>
       <c r="D61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E61" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -4419,10 +4419,10 @@
         <v>32</v>
       </c>
       <c r="D62" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E62" t="s">
-        <v>18</v>
+        <v>139</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -4436,10 +4436,10 @@
         <v>32</v>
       </c>
       <c r="D63" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E63" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -4453,10 +4453,10 @@
         <v>32</v>
       </c>
       <c r="D64" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E64" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -4470,7 +4470,7 @@
         <v>32</v>
       </c>
       <c r="D65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E65" t="s">
         <v>150</v>
@@ -4487,10 +4487,10 @@
         <v>32</v>
       </c>
       <c r="D66" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -4504,10 +4504,10 @@
         <v>32</v>
       </c>
       <c r="D67" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="E67" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -4521,10 +4521,10 @@
         <v>32</v>
       </c>
       <c r="D68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E68" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -4538,10 +4538,10 @@
         <v>32</v>
       </c>
       <c r="D69" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E69" t="s">
-        <v>153</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -4558,7 +4558,7 @@
         <v>8</v>
       </c>
       <c r="E70" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -4572,10 +4572,10 @@
         <v>126</v>
       </c>
       <c r="D71" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="E71" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -4589,7 +4589,7 @@
         <v>126</v>
       </c>
       <c r="D72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E72" t="s">
         <v>154</v>
@@ -4606,10 +4606,10 @@
         <v>126</v>
       </c>
       <c r="D73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E73" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -4623,10 +4623,10 @@
         <v>126</v>
       </c>
       <c r="D74" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E74" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -4640,10 +4640,10 @@
         <v>126</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E75" t="s">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -4657,10 +4657,10 @@
         <v>126</v>
       </c>
       <c r="D76" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -4674,10 +4674,10 @@
         <v>126</v>
       </c>
       <c r="D77" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -4694,7 +4694,7 @@
         <v>46</v>
       </c>
       <c r="E78" t="s">
-        <v>18</v>
+        <v>149</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -4708,10 +4708,10 @@
         <v>37</v>
       </c>
       <c r="D79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E79" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -4728,7 +4728,7 @@
         <v>40</v>
       </c>
       <c r="E80" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -4745,7 +4745,7 @@
         <v>42</v>
       </c>
       <c r="E81" t="s">
-        <v>50</v>
+        <v>155</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -4762,7 +4762,7 @@
         <v>43</v>
       </c>
       <c r="E82" t="s">
-        <v>155</v>
+        <v>52</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -4776,10 +4776,10 @@
         <v>37</v>
       </c>
       <c r="D83" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>18</v>
+        <v>155</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -4793,10 +4793,10 @@
         <v>37</v>
       </c>
       <c r="D84" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="E84" t="s">
-        <v>54</v>
+        <v>156</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -4810,10 +4810,10 @@
         <v>37</v>
       </c>
       <c r="D85" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="E85" t="s">
-        <v>155</v>
+        <v>50</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -4827,10 +4827,10 @@
         <v>37</v>
       </c>
       <c r="D86" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E86" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -4844,10 +4844,10 @@
         <v>37</v>
       </c>
       <c r="D87" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="E87" t="s">
-        <v>156</v>
+        <v>50</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -4861,10 +4861,10 @@
         <v>37</v>
       </c>
       <c r="D88" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E88" t="s">
-        <v>112</v>
+        <v>54</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -4881,7 +4881,7 @@
         <v>8</v>
       </c>
       <c r="E89" t="s">
-        <v>18</v>
+        <v>157</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -4895,10 +4895,10 @@
         <v>29</v>
       </c>
       <c r="D90" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="E90" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4929,7 +4929,7 @@
         <v>29</v>
       </c>
       <c r="D92" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E92" t="s">
         <v>159</v>
@@ -4946,10 +4946,10 @@
         <v>29</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E93" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4966,7 +4966,7 @@
         <v>43</v>
       </c>
       <c r="E94" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4980,10 +4980,10 @@
         <v>29</v>
       </c>
       <c r="D95" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4997,10 +4997,10 @@
         <v>29</v>
       </c>
       <c r="D96" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E96" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -5014,10 +5014,10 @@
         <v>29</v>
       </c>
       <c r="D97" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="E97" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -5034,7 +5034,7 @@
         <v>46</v>
       </c>
       <c r="E98" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -5051,7 +5051,7 @@
         <v>8</v>
       </c>
       <c r="E99" t="s">
-        <v>163</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -5065,10 +5065,10 @@
         <v>30</v>
       </c>
       <c r="D100" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="E100" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -5082,10 +5082,10 @@
         <v>30</v>
       </c>
       <c r="D101" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E101" t="s">
-        <v>165</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -5099,10 +5099,10 @@
         <v>30</v>
       </c>
       <c r="D102" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E102" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -5116,10 +5116,10 @@
         <v>30</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E103" t="s">
-        <v>18</v>
+        <v>165</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -5133,10 +5133,10 @@
         <v>30</v>
       </c>
       <c r="D104" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E104" t="s">
-        <v>18</v>
+        <v>163</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -5150,10 +5150,10 @@
         <v>30</v>
       </c>
       <c r="D105" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -5167,10 +5167,10 @@
         <v>30</v>
       </c>
       <c r="D106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E106" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -5184,10 +5184,10 @@
         <v>30</v>
       </c>
       <c r="D107" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E107" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -5201,10 +5201,10 @@
         <v>30</v>
       </c>
       <c r="D108" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E108" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -5218,7 +5218,7 @@
         <v>30</v>
       </c>
       <c r="D109" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E109" t="s">
         <v>169</v>
@@ -5238,7 +5238,7 @@
         <v>8</v>
       </c>
       <c r="E110" t="s">
-        <v>170</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -5252,10 +5252,10 @@
         <v>38</v>
       </c>
       <c r="D111" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="E111" t="s">
-        <v>129</v>
+        <v>170</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -5269,7 +5269,7 @@
         <v>38</v>
       </c>
       <c r="D112" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E112" t="s">
         <v>171</v>
@@ -5286,10 +5286,10 @@
         <v>38</v>
       </c>
       <c r="D113" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E113" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -5303,10 +5303,10 @@
         <v>38</v>
       </c>
       <c r="D114" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E114" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -5320,10 +5320,10 @@
         <v>38</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>18</v>
+        <v>172</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -5337,10 +5337,10 @@
         <v>38</v>
       </c>
       <c r="D116" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="E116" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -5354,10 +5354,10 @@
         <v>38</v>
       </c>
       <c r="D117" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="E117" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -5371,10 +5371,10 @@
         <v>38</v>
       </c>
       <c r="D118" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E118" t="s">
-        <v>129</v>
+        <v>170</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -5388,10 +5388,10 @@
         <v>38</v>
       </c>
       <c r="D119" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="E119" t="s">
-        <v>173</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -5435,7 +5435,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
         <v>182</v>
@@ -5452,10 +5452,10 @@
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5469,7 +5469,7 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
         <v>86</v>
@@ -5486,10 +5486,10 @@
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5503,10 +5503,10 @@
         <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5520,7 +5520,7 @@
         <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
         <v>185</v>
@@ -5554,7 +5554,7 @@
         <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
         <v>187</v>
@@ -5571,7 +5571,7 @@
         <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
         <v>188</v>
@@ -5588,7 +5588,7 @@
         <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
         <v>189</v>
@@ -5605,10 +5605,10 @@
         <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5622,10 +5622,10 @@
         <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5642,7 +5642,7 @@
         <v>47</v>
       </c>
       <c r="E14" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -5656,7 +5656,7 @@
         <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E15" t="s">
         <v>165</v>
@@ -5676,7 +5676,7 @@
         <v>46</v>
       </c>
       <c r="E16" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5690,7 +5690,7 @@
         <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E17" t="s">
         <v>191</v>
@@ -5707,7 +5707,7 @@
         <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18" t="s">
         <v>192</v>
@@ -5724,7 +5724,7 @@
         <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E19" t="s">
         <v>193</v>
@@ -5741,10 +5741,10 @@
         <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E20" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -5758,10 +5758,10 @@
         <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -5775,10 +5775,10 @@
         <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -5792,10 +5792,10 @@
         <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E23" t="s">
-        <v>191</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -5812,7 +5812,7 @@
         <v>46</v>
       </c>
       <c r="E24" t="s">
-        <v>67</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -5826,7 +5826,7 @@
         <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E25" t="s">
         <v>194</v>
@@ -5843,7 +5843,7 @@
         <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E26" t="s">
         <v>195</v>
@@ -5860,7 +5860,7 @@
         <v>34</v>
       </c>
       <c r="D27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E27" t="s">
         <v>195</v>
@@ -5877,10 +5877,10 @@
         <v>34</v>
       </c>
       <c r="D28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -5894,10 +5894,10 @@
         <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -5911,10 +5911,10 @@
         <v>34</v>
       </c>
       <c r="D30" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="E30" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -5928,10 +5928,10 @@
         <v>34</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E31" t="s">
-        <v>196</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -5948,7 +5948,7 @@
         <v>46</v>
       </c>
       <c r="E32" t="s">
-        <v>130</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -5962,10 +5962,10 @@
         <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E33" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -5979,7 +5979,7 @@
         <v>32</v>
       </c>
       <c r="D34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E34" t="s">
         <v>197</v>
@@ -5996,10 +5996,10 @@
         <v>32</v>
       </c>
       <c r="D35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E35" t="s">
-        <v>18</v>
+        <v>198</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -6013,10 +6013,10 @@
         <v>32</v>
       </c>
       <c r="D36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E36" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -6030,10 +6030,10 @@
         <v>32</v>
       </c>
       <c r="D37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E37" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -6047,10 +6047,10 @@
         <v>32</v>
       </c>
       <c r="D38" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -6067,7 +6067,7 @@
         <v>47</v>
       </c>
       <c r="E39" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -6081,10 +6081,10 @@
         <v>32</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E40" t="s">
-        <v>199</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -6101,7 +6101,7 @@
         <v>46</v>
       </c>
       <c r="E41" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -6115,7 +6115,7 @@
         <v>36</v>
       </c>
       <c r="D42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E42" t="s">
         <v>200</v>
@@ -6135,7 +6135,7 @@
         <v>41</v>
       </c>
       <c r="E43" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -6183,10 +6183,10 @@
         <v>36</v>
       </c>
       <c r="D46" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="E46" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -6200,10 +6200,10 @@
         <v>36</v>
       </c>
       <c r="D47" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E47" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -6234,7 +6234,7 @@
         <v>33</v>
       </c>
       <c r="D49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E49" t="s">
         <v>205</v>
@@ -6251,10 +6251,10 @@
         <v>33</v>
       </c>
       <c r="D50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E50" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -6268,10 +6268,10 @@
         <v>33</v>
       </c>
       <c r="D51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E51" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -6285,7 +6285,7 @@
         <v>33</v>
       </c>
       <c r="D52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E52" t="s">
         <v>199</v>
@@ -6302,10 +6302,10 @@
         <v>33</v>
       </c>
       <c r="D53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E53" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -6319,10 +6319,10 @@
         <v>33</v>
       </c>
       <c r="D54" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="E54" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -6336,10 +6336,10 @@
         <v>33</v>
       </c>
       <c r="D55" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E55" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -6356,7 +6356,7 @@
         <v>46</v>
       </c>
       <c r="E56" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -6370,7 +6370,7 @@
         <v>31</v>
       </c>
       <c r="D57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E57" t="s">
         <v>208</v>
@@ -6387,10 +6387,10 @@
         <v>31</v>
       </c>
       <c r="D58" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E58" t="s">
-        <v>133</v>
+        <v>209</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -6404,10 +6404,10 @@
         <v>31</v>
       </c>
       <c r="D59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E59" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -6421,10 +6421,10 @@
         <v>31</v>
       </c>
       <c r="D60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E60" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -6438,10 +6438,10 @@
         <v>31</v>
       </c>
       <c r="D61" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="E61" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -6455,10 +6455,10 @@
         <v>31</v>
       </c>
       <c r="D62" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E62" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -6475,7 +6475,7 @@
         <v>46</v>
       </c>
       <c r="E63" t="s">
-        <v>212</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -6489,7 +6489,7 @@
         <v>29</v>
       </c>
       <c r="D64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E64" t="s">
         <v>213</v>
@@ -6506,10 +6506,10 @@
         <v>29</v>
       </c>
       <c r="D65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E65" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -6523,10 +6523,10 @@
         <v>29</v>
       </c>
       <c r="D66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E66" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -6540,10 +6540,10 @@
         <v>29</v>
       </c>
       <c r="D67" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E67" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -6557,10 +6557,10 @@
         <v>29</v>
       </c>
       <c r="D68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E68" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -6574,10 +6574,10 @@
         <v>29</v>
       </c>
       <c r="D69" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="E69" t="s">
-        <v>134</v>
+        <v>214</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -6594,7 +6594,7 @@
         <v>47</v>
       </c>
       <c r="E70" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -6608,10 +6608,10 @@
         <v>29</v>
       </c>
       <c r="D71" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E71" t="s">
-        <v>214</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -6628,7 +6628,7 @@
         <v>46</v>
       </c>
       <c r="E72" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -6642,10 +6642,10 @@
         <v>126</v>
       </c>
       <c r="D73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E73" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -6659,10 +6659,10 @@
         <v>126</v>
       </c>
       <c r="D74" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E74" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -6676,10 +6676,10 @@
         <v>126</v>
       </c>
       <c r="D75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E75" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -6693,7 +6693,7 @@
         <v>126</v>
       </c>
       <c r="D76" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E76" t="s">
         <v>215</v>
@@ -6710,10 +6710,10 @@
         <v>126</v>
       </c>
       <c r="D77" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E77" t="s">
-        <v>100</v>
+        <v>216</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -6727,10 +6727,10 @@
         <v>126</v>
       </c>
       <c r="D78" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="E78" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -6747,7 +6747,7 @@
         <v>47</v>
       </c>
       <c r="E79" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -6761,10 +6761,10 @@
         <v>126</v>
       </c>
       <c r="D80" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E80" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -6781,7 +6781,7 @@
         <v>46</v>
       </c>
       <c r="E81" t="s">
-        <v>216</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -6825,7 +6825,7 @@
         <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
         <v>231</v>
@@ -6842,10 +6842,10 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>225</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6859,10 +6859,10 @@
         <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6876,10 +6876,10 @@
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>233</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -6893,7 +6893,7 @@
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>225</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
         <v>234</v>
@@ -6913,7 +6913,7 @@
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>157</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -6927,10 +6927,10 @@
         <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>226</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -6944,10 +6944,10 @@
         <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -6961,10 +6961,10 @@
         <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>225</v>
       </c>
       <c r="E10" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -6978,10 +6978,10 @@
         <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>226</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -6998,7 +6998,7 @@
         <v>227</v>
       </c>
       <c r="E12" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -7012,10 +7012,10 @@
         <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>225</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>196</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -7032,7 +7032,7 @@
         <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>236</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -7046,7 +7046,7 @@
         <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E15" t="s">
         <v>237</v>
@@ -7063,7 +7063,7 @@
         <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>226</v>
       </c>
       <c r="E16" t="s">
         <v>238</v>
@@ -7080,7 +7080,7 @@
         <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E17" t="s">
         <v>239</v>
@@ -7097,10 +7097,10 @@
         <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>226</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -7114,10 +7114,10 @@
         <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>227</v>
       </c>
       <c r="E19" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -7131,7 +7131,7 @@
         <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
       <c r="E20" t="s">
         <v>240</v>
@@ -7165,10 +7165,10 @@
         <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>228</v>
+        <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -7182,10 +7182,10 @@
         <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -7199,10 +7199,10 @@
         <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E24" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -7216,7 +7216,7 @@
         <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
         <v>244</v>
@@ -7233,7 +7233,7 @@
         <v>32</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E26" t="s">
         <v>245</v>
@@ -7250,10 +7250,10 @@
         <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>44</v>
+        <v>228</v>
       </c>
       <c r="E27" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -7267,10 +7267,10 @@
         <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="E28" t="s">
-        <v>246</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -7287,7 +7287,7 @@
         <v>46</v>
       </c>
       <c r="E29" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -7301,7 +7301,7 @@
         <v>224</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E30" t="s">
         <v>247</v>
@@ -7335,10 +7335,10 @@
         <v>224</v>
       </c>
       <c r="D32" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E32" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -7352,10 +7352,10 @@
         <v>224</v>
       </c>
       <c r="D33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E33" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -7369,10 +7369,10 @@
         <v>224</v>
       </c>
       <c r="D34" t="s">
-        <v>45</v>
+        <v>224</v>
       </c>
       <c r="E34" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -7386,7 +7386,7 @@
         <v>224</v>
       </c>
       <c r="D35" t="s">
-        <v>224</v>
+        <v>46</v>
       </c>
       <c r="E35" t="s">
         <v>250</v>
@@ -7403,10 +7403,10 @@
         <v>37</v>
       </c>
       <c r="D36" t="s">
-        <v>229</v>
+        <v>8</v>
       </c>
       <c r="E36" t="s">
-        <v>18</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -7420,10 +7420,10 @@
         <v>37</v>
       </c>
       <c r="D37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E37" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -7437,10 +7437,10 @@
         <v>37</v>
       </c>
       <c r="D38" t="s">
-        <v>40</v>
+        <v>226</v>
       </c>
       <c r="E38" t="s">
-        <v>18</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -7454,10 +7454,10 @@
         <v>37</v>
       </c>
       <c r="D39" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E39" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -7471,7 +7471,7 @@
         <v>37</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>229</v>
       </c>
       <c r="E40" t="s">
         <v>252</v>
@@ -7488,7 +7488,7 @@
         <v>37</v>
       </c>
       <c r="D41" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
         <v>253</v>
@@ -7505,10 +7505,10 @@
         <v>37</v>
       </c>
       <c r="D42" t="s">
-        <v>45</v>
+        <v>230</v>
       </c>
       <c r="E42" t="s">
-        <v>251</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -7522,10 +7522,10 @@
         <v>37</v>
       </c>
       <c r="D43" t="s">
-        <v>227</v>
+        <v>44</v>
       </c>
       <c r="E43" t="s">
-        <v>193</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -7539,7 +7539,7 @@
         <v>37</v>
       </c>
       <c r="D44" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="E44" t="s">
         <v>254</v>
@@ -7556,10 +7556,10 @@
         <v>37</v>
       </c>
       <c r="D45" t="s">
-        <v>230</v>
+        <v>46</v>
       </c>
       <c r="E45" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -7573,10 +7573,10 @@
         <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>229</v>
+        <v>8</v>
       </c>
       <c r="E46" t="s">
-        <v>18</v>
+        <v>209</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -7590,10 +7590,10 @@
         <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E47" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -7607,10 +7607,10 @@
         <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>40</v>
+        <v>226</v>
       </c>
       <c r="E48" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -7624,10 +7624,10 @@
         <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>42</v>
+        <v>229</v>
       </c>
       <c r="E49" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -7641,10 +7641,10 @@
         <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>210</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -7658,10 +7658,10 @@
         <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="E51" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -7675,10 +7675,10 @@
         <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>227</v>
+        <v>44</v>
       </c>
       <c r="E52" t="s">
-        <v>18</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -7692,10 +7692,10 @@
         <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="E53" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -7709,10 +7709,10 @@
         <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>230</v>
+        <v>46</v>
       </c>
       <c r="E54" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -7726,10 +7726,10 @@
         <v>36</v>
       </c>
       <c r="D55" t="s">
-        <v>229</v>
+        <v>8</v>
       </c>
       <c r="E55" t="s">
-        <v>18</v>
+        <v>255</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -7743,10 +7743,10 @@
         <v>36</v>
       </c>
       <c r="D56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E56" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -7760,10 +7760,10 @@
         <v>36</v>
       </c>
       <c r="D57" t="s">
-        <v>40</v>
+        <v>225</v>
       </c>
       <c r="E57" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -7777,10 +7777,10 @@
         <v>36</v>
       </c>
       <c r="D58" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E58" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -7794,10 +7794,10 @@
         <v>36</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>229</v>
       </c>
       <c r="E59" t="s">
-        <v>255</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -7811,10 +7811,10 @@
         <v>36</v>
       </c>
       <c r="D60" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>18</v>
+        <v>256</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -7828,10 +7828,10 @@
         <v>36</v>
       </c>
       <c r="D61" t="s">
-        <v>45</v>
+        <v>230</v>
       </c>
       <c r="E61" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -7845,10 +7845,10 @@
         <v>36</v>
       </c>
       <c r="D62" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="E62" t="s">
-        <v>256</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -7862,10 +7862,10 @@
         <v>36</v>
       </c>
       <c r="D63" t="s">
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="E63" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -7879,10 +7879,10 @@
         <v>36</v>
       </c>
       <c r="D64" t="s">
-        <v>230</v>
+        <v>46</v>
       </c>
       <c r="E64" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -7896,7 +7896,7 @@
         <v>38</v>
       </c>
       <c r="D65" t="s">
-        <v>228</v>
+        <v>8</v>
       </c>
       <c r="E65" t="s">
         <v>257</v>
@@ -7913,7 +7913,7 @@
         <v>38</v>
       </c>
       <c r="D66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E66" t="s">
         <v>231</v>
@@ -7930,7 +7930,7 @@
         <v>38</v>
       </c>
       <c r="D67" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E67" t="s">
         <v>258</v>
@@ -7947,10 +7947,10 @@
         <v>38</v>
       </c>
       <c r="D68" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -7964,7 +7964,7 @@
         <v>38</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E69" t="s">
         <v>259</v>
@@ -7981,10 +7981,10 @@
         <v>38</v>
       </c>
       <c r="D70" t="s">
-        <v>44</v>
+        <v>228</v>
       </c>
       <c r="E70" t="s">
-        <v>114</v>
+        <v>260</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -7998,10 +7998,10 @@
         <v>38</v>
       </c>
       <c r="D71" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="E71" t="s">
-        <v>246</v>
+        <v>114</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -8018,7 +8018,7 @@
         <v>46</v>
       </c>
       <c r="E72" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -8035,7 +8035,7 @@
         <v>8</v>
       </c>
       <c r="E73" t="s">
-        <v>261</v>
+        <v>111</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -8049,10 +8049,10 @@
         <v>35</v>
       </c>
       <c r="D74" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="E74" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -8066,10 +8066,10 @@
         <v>35</v>
       </c>
       <c r="D75" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E75" t="s">
-        <v>263</v>
+        <v>110</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -8083,10 +8083,10 @@
         <v>35</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>112</v>
+        <v>262</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -8103,7 +8103,7 @@
         <v>44</v>
       </c>
       <c r="E77" t="s">
-        <v>18</v>
+        <v>263</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -8117,10 +8117,10 @@
         <v>35</v>
       </c>
       <c r="D78" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="E78" t="s">
-        <v>264</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -8137,7 +8137,7 @@
         <v>46</v>
       </c>
       <c r="E79" t="s">
-        <v>111</v>
+        <v>264</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -8168,7 +8168,7 @@
         <v>31</v>
       </c>
       <c r="D81" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="E81" t="s">
         <v>266</v>
@@ -8185,10 +8185,10 @@
         <v>31</v>
       </c>
       <c r="D82" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E82" t="s">
-        <v>215</v>
+        <v>65</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -8202,7 +8202,7 @@
         <v>31</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E83" t="s">
         <v>267</v>
@@ -8219,7 +8219,7 @@
         <v>31</v>
       </c>
       <c r="D84" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E84" t="s">
         <v>65</v>
@@ -8236,10 +8236,10 @@
         <v>31</v>
       </c>
       <c r="D85" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E85" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -8256,7 +8256,7 @@
         <v>46</v>
       </c>
       <c r="E86" t="s">
-        <v>66</v>
+        <v>215</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -8270,10 +8270,10 @@
         <v>33</v>
       </c>
       <c r="D87" t="s">
-        <v>229</v>
+        <v>8</v>
       </c>
       <c r="E87" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -8287,10 +8287,10 @@
         <v>33</v>
       </c>
       <c r="D88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E88" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -8304,10 +8304,10 @@
         <v>33</v>
       </c>
       <c r="D89" t="s">
-        <v>42</v>
+        <v>225</v>
       </c>
       <c r="E89" t="s">
-        <v>268</v>
+        <v>70</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -8321,10 +8321,10 @@
         <v>33</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>226</v>
       </c>
       <c r="E90" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -8338,7 +8338,7 @@
         <v>33</v>
       </c>
       <c r="D91" t="s">
-        <v>44</v>
+        <v>229</v>
       </c>
       <c r="E91" t="s">
         <v>100</v>
@@ -8355,10 +8355,10 @@
         <v>33</v>
       </c>
       <c r="D92" t="s">
-        <v>227</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -8372,10 +8372,10 @@
         <v>33</v>
       </c>
       <c r="D93" t="s">
-        <v>11</v>
+        <v>230</v>
       </c>
       <c r="E93" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -8389,10 +8389,10 @@
         <v>33</v>
       </c>
       <c r="D94" t="s">
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="E94" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -8406,10 +8406,10 @@
         <v>33</v>
       </c>
       <c r="D95" t="s">
-        <v>230</v>
+        <v>46</v>
       </c>
       <c r="E95" t="s">
-        <v>98</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -8453,10 +8453,10 @@
         <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>278</v>
+        <v>226</v>
       </c>
       <c r="E2" t="s">
-        <v>280</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -8470,10 +8470,10 @@
         <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>225</v>
       </c>
       <c r="E3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -8487,10 +8487,10 @@
         <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8504,7 +8504,7 @@
         <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>226</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
         <v>280</v>
@@ -8521,10 +8521,10 @@
         <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -8538,10 +8538,10 @@
         <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>227</v>
+        <v>278</v>
       </c>
       <c r="E7" t="s">
-        <v>161</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -8555,10 +8555,10 @@
         <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>227</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -8572,10 +8572,10 @@
         <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>225</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -8592,7 +8592,7 @@
         <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>280</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -8606,7 +8606,7 @@
         <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s">
         <v>281</v>
@@ -8623,7 +8623,7 @@
         <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s">
         <v>282</v>
@@ -8640,10 +8640,10 @@
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>225</v>
       </c>
       <c r="E13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -8657,10 +8657,10 @@
         <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="E14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -8674,7 +8674,7 @@
         <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>225</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
         <v>284</v>
@@ -8691,10 +8691,10 @@
         <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E16" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -8708,10 +8708,10 @@
         <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E17" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -8725,10 +8725,10 @@
         <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -8742,10 +8742,10 @@
         <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>225</v>
       </c>
       <c r="E19" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -8759,10 +8759,10 @@
         <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E20" t="s">
-        <v>70</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -8776,10 +8776,10 @@
         <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>279</v>
+        <v>229</v>
       </c>
       <c r="E21" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -8793,10 +8793,10 @@
         <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>279</v>
       </c>
       <c r="E22" t="s">
-        <v>285</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -8810,10 +8810,10 @@
         <v>34</v>
       </c>
       <c r="D23" t="s">
-        <v>227</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>141</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -8827,10 +8827,10 @@
         <v>34</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>230</v>
       </c>
       <c r="E24" t="s">
-        <v>286</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -8844,10 +8844,10 @@
         <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>225</v>
+        <v>48</v>
       </c>
       <c r="E25" t="s">
-        <v>77</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -8861,10 +8861,10 @@
         <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E26" t="s">
-        <v>287</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -8878,7 +8878,7 @@
         <v>34</v>
       </c>
       <c r="D27" t="s">
-        <v>230</v>
+        <v>46</v>
       </c>
       <c r="E27" t="s">
         <v>71</v>
@@ -8895,10 +8895,10 @@
         <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>278</v>
+        <v>226</v>
       </c>
       <c r="E28" t="s">
-        <v>134</v>
+        <v>288</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -8912,10 +8912,10 @@
         <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>40</v>
+        <v>225</v>
       </c>
       <c r="E29" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -8929,10 +8929,10 @@
         <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E30" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -8946,10 +8946,10 @@
         <v>32</v>
       </c>
       <c r="D31" t="s">
-        <v>226</v>
+        <v>43</v>
       </c>
       <c r="E31" t="s">
-        <v>290</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -8963,7 +8963,7 @@
         <v>32</v>
       </c>
       <c r="D32" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
         <v>291</v>
@@ -8980,10 +8980,10 @@
         <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>227</v>
+        <v>278</v>
       </c>
       <c r="E33" t="s">
-        <v>292</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -8997,10 +8997,10 @@
         <v>32</v>
       </c>
       <c r="D34" t="s">
-        <v>11</v>
+        <v>227</v>
       </c>
       <c r="E34" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -9014,10 +9014,10 @@
         <v>32</v>
       </c>
       <c r="D35" t="s">
-        <v>225</v>
+        <v>44</v>
       </c>
       <c r="E35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -9034,7 +9034,7 @@
         <v>46</v>
       </c>
       <c r="E36" t="s">
-        <v>207</v>
+        <v>294</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -9048,10 +9048,10 @@
         <v>224</v>
       </c>
       <c r="D37" t="s">
-        <v>40</v>
+        <v>225</v>
       </c>
       <c r="E37" t="s">
-        <v>68</v>
+        <v>295</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -9065,10 +9065,10 @@
         <v>224</v>
       </c>
       <c r="D38" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s">
-        <v>129</v>
+        <v>295</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -9082,10 +9082,10 @@
         <v>224</v>
       </c>
       <c r="D39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E39" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -9099,10 +9099,10 @@
         <v>224</v>
       </c>
       <c r="D40" t="s">
-        <v>225</v>
+        <v>48</v>
       </c>
       <c r="E40" t="s">
-        <v>295</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -9116,10 +9116,10 @@
         <v>224</v>
       </c>
       <c r="D41" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E41" t="s">
-        <v>296</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -9133,10 +9133,10 @@
         <v>224</v>
       </c>
       <c r="D42" t="s">
-        <v>48</v>
+        <v>224</v>
       </c>
       <c r="E42" t="s">
-        <v>62</v>
+        <v>297</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -9150,10 +9150,10 @@
         <v>224</v>
       </c>
       <c r="D43" t="s">
-        <v>224</v>
+        <v>46</v>
       </c>
       <c r="E43" t="s">
-        <v>297</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -9167,10 +9167,10 @@
         <v>39</v>
       </c>
       <c r="D44" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E44" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -9184,10 +9184,10 @@
         <v>39</v>
       </c>
       <c r="D45" t="s">
-        <v>40</v>
+        <v>225</v>
       </c>
       <c r="E45" t="s">
-        <v>141</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -9201,10 +9201,10 @@
         <v>39</v>
       </c>
       <c r="D46" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E46" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -9218,10 +9218,10 @@
         <v>39</v>
       </c>
       <c r="D47" t="s">
-        <v>279</v>
+        <v>229</v>
       </c>
       <c r="E47" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -9235,10 +9235,10 @@
         <v>39</v>
       </c>
       <c r="D48" t="s">
-        <v>45</v>
+        <v>279</v>
       </c>
       <c r="E48" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -9252,10 +9252,10 @@
         <v>39</v>
       </c>
       <c r="D49" t="s">
-        <v>227</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>78</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -9269,10 +9269,10 @@
         <v>39</v>
       </c>
       <c r="D50" t="s">
-        <v>11</v>
+        <v>230</v>
       </c>
       <c r="E50" t="s">
-        <v>143</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -9286,10 +9286,10 @@
         <v>39</v>
       </c>
       <c r="D51" t="s">
-        <v>225</v>
+        <v>48</v>
       </c>
       <c r="E51" t="s">
-        <v>76</v>
+        <v>287</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -9303,10 +9303,10 @@
         <v>39</v>
       </c>
       <c r="D52" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E52" t="s">
-        <v>287</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -9320,10 +9320,10 @@
         <v>39</v>
       </c>
       <c r="D53" t="s">
-        <v>230</v>
+        <v>46</v>
       </c>
       <c r="E53" t="s">
-        <v>78</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -9337,10 +9337,10 @@
         <v>36</v>
       </c>
       <c r="D54" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E54" t="s">
-        <v>78</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -9354,10 +9354,10 @@
         <v>36</v>
       </c>
       <c r="D55" t="s">
-        <v>278</v>
+        <v>225</v>
       </c>
       <c r="E55" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -9374,7 +9374,7 @@
         <v>40</v>
       </c>
       <c r="E56" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -9388,10 +9388,10 @@
         <v>36</v>
       </c>
       <c r="D57" t="s">
-        <v>42</v>
+        <v>229</v>
       </c>
       <c r="E57" t="s">
-        <v>83</v>
+        <v>143</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -9405,10 +9405,10 @@
         <v>36</v>
       </c>
       <c r="D58" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E58" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -9422,10 +9422,10 @@
         <v>36</v>
       </c>
       <c r="D59" t="s">
-        <v>227</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -9439,10 +9439,10 @@
         <v>36</v>
       </c>
       <c r="D60" t="s">
-        <v>11</v>
+        <v>230</v>
       </c>
       <c r="E60" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -9456,10 +9456,10 @@
         <v>36</v>
       </c>
       <c r="D61" t="s">
-        <v>225</v>
+        <v>278</v>
       </c>
       <c r="E61" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -9473,10 +9473,10 @@
         <v>36</v>
       </c>
       <c r="D62" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E62" t="s">
-        <v>78</v>
+        <v>265</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -9490,10 +9490,10 @@
         <v>36</v>
       </c>
       <c r="D63" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E63" t="s">
-        <v>267</v>
+        <v>143</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -9507,10 +9507,10 @@
         <v>36</v>
       </c>
       <c r="D64" t="s">
-        <v>230</v>
+        <v>46</v>
       </c>
       <c r="E64" t="s">
-        <v>141</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -9524,7 +9524,7 @@
         <v>38</v>
       </c>
       <c r="D65" t="s">
-        <v>228</v>
+        <v>9</v>
       </c>
       <c r="E65" t="s">
         <v>298</v>
@@ -9541,7 +9541,7 @@
         <v>38</v>
       </c>
       <c r="D66" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="E66" t="s">
         <v>299</v>
@@ -9575,7 +9575,7 @@
         <v>38</v>
       </c>
       <c r="D68" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E68" t="s">
         <v>301</v>
@@ -9592,7 +9592,7 @@
         <v>38</v>
       </c>
       <c r="D69" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
         <v>302</v>
@@ -9609,7 +9609,7 @@
         <v>38</v>
       </c>
       <c r="D70" t="s">
-        <v>11</v>
+        <v>228</v>
       </c>
       <c r="E70" t="s">
         <v>303</v>
@@ -9626,7 +9626,7 @@
         <v>38</v>
       </c>
       <c r="D71" t="s">
-        <v>225</v>
+        <v>44</v>
       </c>
       <c r="E71" t="s">
         <v>304</v>
@@ -9660,7 +9660,7 @@
         <v>126</v>
       </c>
       <c r="D73" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E73" t="s">
         <v>306</v>
@@ -9680,7 +9680,7 @@
         <v>40</v>
       </c>
       <c r="E74" t="s">
-        <v>307</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -9694,10 +9694,10 @@
         <v>126</v>
       </c>
       <c r="D75" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>308</v>
+        <v>211</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -9711,10 +9711,10 @@
         <v>126</v>
       </c>
       <c r="D76" t="s">
-        <v>44</v>
+        <v>228</v>
       </c>
       <c r="E76" t="s">
-        <v>73</v>
+        <v>307</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -9728,10 +9728,10 @@
         <v>126</v>
       </c>
       <c r="D77" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E77" t="s">
-        <v>18</v>
+        <v>308</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -9745,10 +9745,10 @@
         <v>126</v>
       </c>
       <c r="D78" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="E78" t="s">
-        <v>211</v>
+        <v>309</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -9762,10 +9762,10 @@
         <v>126</v>
       </c>
       <c r="D79" t="s">
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="E79" t="s">
-        <v>309</v>
+        <v>70</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -9779,7 +9779,7 @@
         <v>126</v>
       </c>
       <c r="D80" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E80" t="s">
         <v>310</v>
@@ -9799,7 +9799,7 @@
         <v>40</v>
       </c>
       <c r="E81" t="s">
-        <v>211</v>
+        <v>311</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -9813,10 +9813,10 @@
         <v>35</v>
       </c>
       <c r="D82" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>129</v>
+        <v>208</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -9833,7 +9833,7 @@
         <v>44</v>
       </c>
       <c r="E83" t="s">
-        <v>18</v>
+        <v>211</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -9847,10 +9847,10 @@
         <v>35</v>
       </c>
       <c r="D84" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E84" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -9864,10 +9864,10 @@
         <v>35</v>
       </c>
       <c r="D85" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E85" t="s">
-        <v>312</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -9881,10 +9881,10 @@
         <v>35</v>
       </c>
       <c r="D86" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="E86" t="s">
-        <v>208</v>
+        <v>127</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -9901,7 +9901,7 @@
         <v>40</v>
       </c>
       <c r="E87" t="s">
-        <v>313</v>
+        <v>109</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -9915,10 +9915,10 @@
         <v>7</v>
       </c>
       <c r="D88" t="s">
-        <v>42</v>
+        <v>225</v>
       </c>
       <c r="E88" t="s">
-        <v>314</v>
+        <v>109</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -9932,10 +9932,10 @@
         <v>7</v>
       </c>
       <c r="D89" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E89" t="s">
-        <v>109</v>
+        <v>313</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -9949,10 +9949,10 @@
         <v>7</v>
       </c>
       <c r="D90" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -9966,10 +9966,10 @@
         <v>7</v>
       </c>
       <c r="D91" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="E91" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -9983,10 +9983,10 @@
         <v>7</v>
       </c>
       <c r="D92" t="s">
-        <v>225</v>
+        <v>48</v>
       </c>
       <c r="E92" t="s">
-        <v>109</v>
+        <v>316</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -10000,7 +10000,7 @@
         <v>7</v>
       </c>
       <c r="D93" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E93" t="s">
         <v>317</v>
@@ -10017,7 +10017,7 @@
         <v>7</v>
       </c>
       <c r="D94" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E94" t="s">
         <v>318</v>
@@ -10034,10 +10034,10 @@
         <v>37</v>
       </c>
       <c r="D95" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E95" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -10051,10 +10051,10 @@
         <v>37</v>
       </c>
       <c r="D96" t="s">
-        <v>40</v>
+        <v>225</v>
       </c>
       <c r="E96" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -10068,10 +10068,10 @@
         <v>37</v>
       </c>
       <c r="D97" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E97" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -10085,10 +10085,10 @@
         <v>37</v>
       </c>
       <c r="D98" t="s">
-        <v>279</v>
+        <v>229</v>
       </c>
       <c r="E98" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -10102,10 +10102,10 @@
         <v>37</v>
       </c>
       <c r="D99" t="s">
-        <v>45</v>
+        <v>279</v>
       </c>
       <c r="E99" t="s">
-        <v>18</v>
+        <v>207</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -10119,10 +10119,10 @@
         <v>37</v>
       </c>
       <c r="D100" t="s">
-        <v>227</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -10136,10 +10136,10 @@
         <v>37</v>
       </c>
       <c r="D101" t="s">
-        <v>11</v>
+        <v>230</v>
       </c>
       <c r="E101" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -10153,10 +10153,10 @@
         <v>37</v>
       </c>
       <c r="D102" t="s">
-        <v>225</v>
+        <v>48</v>
       </c>
       <c r="E102" t="s">
-        <v>207</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -10170,10 +10170,10 @@
         <v>37</v>
       </c>
       <c r="D103" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E103" t="s">
-        <v>18</v>
+        <v>197</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -10187,10 +10187,10 @@
         <v>37</v>
       </c>
       <c r="D104" t="s">
-        <v>230</v>
+        <v>46</v>
       </c>
       <c r="E104" t="s">
-        <v>198</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
